--- a/datos/depositos.xlsx
+++ b/datos/depositos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Mercado-de-Valores\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C2712-F4C2-4E6F-9E37-720106E38C0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E20D7CB-6577-46E1-8D10-7D2C0151C675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ED4DFA87-8014-4EA1-8181-ABD5C82B1EDE}"/>
   </bookViews>
@@ -50,8 +50,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -90,17 +91,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -757,10 +780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE7DE3E-2773-4ED4-AA32-5604CC3423AA}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,8 +810,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
-        <v>5446.4285714285716</v>
+      <c r="C2">
+        <v>-5446.4285714285716</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -798,8 +821,8 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
-        <v>5220.869565217391</v>
+      <c r="C3">
+        <v>-5220.869565217391</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -809,8 +832,8 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
-        <v>4237.2881355932204</v>
+      <c r="C4">
+        <v>-4237.2881355932204</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -820,8 +843,8 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
-        <v>4878.0487804878048</v>
+      <c r="C5">
+        <v>-4878.0487804878048</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,8 +854,8 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
-        <v>4838.7096774193551</v>
+      <c r="C6">
+        <v>-4838.7096774193551</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -842,8 +865,8 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
-        <v>4918.0327868852455</v>
+      <c r="C7">
+        <v>-4918.0327868852455</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,8 +876,8 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3">
-        <v>9311.7408906882592</v>
+      <c r="C8">
+        <v>-9311.7408906882592</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,8 +887,8 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
-        <v>3187.2509960159364</v>
+      <c r="C9">
+        <v>-3187.2509960159364</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,8 +898,8 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
-        <v>2788.8446215139443</v>
+      <c r="C10">
+        <v>-2788.8446215139443</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,8 +909,8 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
-        <v>1606.4257028112449</v>
+      <c r="C11">
+        <v>-1606.4257028112449</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,8 +920,8 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
-        <v>4081.6326530612246</v>
+      <c r="C12">
+        <v>-4081.6326530612246</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,8 +931,8 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3">
-        <v>3292.1810699588477</v>
+      <c r="C13">
+        <v>-3292.1810699588477</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -919,8 +942,8 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="3">
-        <v>5529.9539170506914</v>
+      <c r="C14">
+        <v>-5529.9539170506914</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -930,8 +953,8 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
-        <v>4672.8971962616824</v>
+      <c r="C15">
+        <v>-4672.8971962616824</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -941,8 +964,8 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <v>4926.1083743842364</v>
+      <c r="C16">
+        <v>-4926.1083743842364</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -952,8 +975,8 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>5940.5940594059402</v>
+      <c r="C17">
+        <v>-5940.5940594059402</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,8 +986,8 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>5882.3529411764703</v>
+      <c r="C18">
+        <v>-5882.3529411764703</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,8 +997,8 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>4901.9607843137255</v>
+      <c r="C19">
+        <v>-4901.9607843137255</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -985,8 +1008,8 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
-        <v>2970.2970297029701</v>
+      <c r="C20">
+        <v>-2970.2970297029701</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -996,8 +1019,8 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>6091.3705583756346</v>
+      <c r="C21">
+        <v>-6091.3705583756346</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1007,8 +1030,8 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>4830.9178743961356</v>
+      <c r="C22">
+        <v>-4830.9178743961356</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,8 +1041,8 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="3">
-        <v>5797.101449275362</v>
+      <c r="C23">
+        <v>-5797.101449275362</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,8 +1052,8 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3">
-        <v>3759.3984962406016</v>
+      <c r="C24">
+        <v>-3759.3984962406016</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,8 +1063,8 @@
       <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="3">
-        <v>3690.0369003690039</v>
+      <c r="C25">
+        <v>-3690.0369003690039</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,8 +1074,8 @@
       <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="3">
-        <v>4285.7142857142853</v>
+      <c r="C26">
+        <v>-4285.7142857142853</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1062,8 +1085,8 @@
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="3">
-        <v>4123.7113402061859</v>
+      <c r="C27">
+        <v>-4123.7113402061859</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1073,8 +1096,8 @@
       <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="3">
-        <v>4123.7113402061859</v>
+      <c r="C28">
+        <v>-4123.7113402061859</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,8 +1107,8 @@
       <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="3">
-        <v>4152.249134948097</v>
+      <c r="C29">
+        <v>-4152.249134948097</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,8 +1118,8 @@
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="3">
-        <v>4428.0442804428048</v>
+      <c r="C30">
+        <v>-4428.0442804428048</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1106,8 +1129,8 @@
       <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="3">
-        <v>4460.966542750929</v>
+      <c r="C31">
+        <v>-4460.966542750929</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1117,8 +1140,8 @@
       <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="3">
-        <v>4444.4444444444443</v>
+      <c r="C32">
+        <v>-4444.4444444444443</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1128,8 +1151,8 @@
       <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="3">
-        <v>-8530</v>
+      <c r="C33">
+        <v>8530</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1139,8 +1162,8 @@
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="3">
-        <v>-3418.8034188034189</v>
+      <c r="C34">
+        <v>3418.8034188034189</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1150,8 +1173,8 @@
       <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="3">
-        <v>4897.9591836734689</v>
+      <c r="C35">
+        <v>-4897.9591836734689</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1161,8 +1184,8 @@
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="3">
-        <v>5263.1578947368425</v>
+      <c r="C36">
+        <v>-5263.1578947368425</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1172,8 +1195,8 @@
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="3">
-        <v>5263.1578947368425</v>
+      <c r="C37">
+        <v>-5263.1578947368425</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,8 +1206,8 @@
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="3">
-        <v>-6841.9076923076927</v>
+      <c r="C38">
+        <v>6841.9076923076927</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1194,8 +1217,8 @@
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="3">
-        <v>-31657.444444444445</v>
+      <c r="C39">
+        <v>31657.444444444445</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1205,8 +1228,8 @@
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="3">
-        <v>-4052.5819256756758</v>
+      <c r="C40">
+        <v>4052.5819256756758</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1216,8 +1239,8 @@
       <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="3">
-        <v>-5333.614864864865</v>
+      <c r="C41">
+        <v>5333.614864864865</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,8 +1250,14 @@
       <c r="B42" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>191179.05405405405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="4">
+        <f>+XIRR(C2:C42,A2:A42)</f>
+        <v>0.93183971643447872</v>
       </c>
     </row>
   </sheetData>

--- a/datos/depositos.xlsx
+++ b/datos/depositos.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Mercado-de-Valores\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2E7F7C-F641-4421-A0E4-85E74FF3FBF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB99AF9-A629-45A3-9F0C-49998B53FE4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ED4DFA87-8014-4EA1-8181-ABD5C82B1EDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{ED4DFA87-8014-4EA1-8181-ABD5C82B1EDE}"/>
   </bookViews>
   <sheets>
     <sheet name="depositos" sheetId="1" r:id="rId1"/>
     <sheet name="movimientos" sheetId="2" r:id="rId2"/>
+    <sheet name="tir" sheetId="13" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="6">
   <si>
     <t>fecha</t>
   </si>
@@ -87,22 +89,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -761,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE7DE3E-2773-4ED4-AA32-5604CC3423AA}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,4 +1285,1580 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AA962B-7CC8-43D0-8B3B-E7A0AAE966B2}">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>-5446.4285714285716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>-5220.869565217391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-4237.2881355932204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>-4878.0487804878048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>-4838.7096774193551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>-4918.0327868852455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>-9311.7408906882592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>-3187.2509960159364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>-2788.8446215139443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>-1606.4257028112449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>-4081.6326530612246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>-3292.1810699588477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>+EOMONTH(A12,0)</f>
+        <v>45322</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>56179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <f>-C14</f>
+        <v>-56179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>-5529.9539170506914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>+EOMONTH(A16,0)</f>
+        <v>45351</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>68269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>-68270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>-4672.8971962616824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>-4926.1083743842364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>-5940.5940594059402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>-5882.3529411764703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>-4901.9607843137255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>-2970.2970297029701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f>+EOMONTH(A24,0)</f>
+        <v>45382</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>102236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>-102237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>-6091.3705583756346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>-4830.9178743961356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>-5797.101449275362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>123216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <f>+-C30</f>
+        <v>-123216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>122729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>-122730</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>-3759.3984962406016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45468</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>-3690.0369003690039</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>124604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>-124605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45489</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>-4285.7142857142853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45490</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>-4123.7113402061859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45491</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>-4123.7113402061859</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45492</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>-4152.249134948097</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>134994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>-134995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45518</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>-4428.0442804428048</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45520</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>-4460.966542750929</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45523</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>-4444.4444444444443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>171836</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>-171837</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>179318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>-179319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>45575</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>8530</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>3418.8034188034189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>45593</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>-4897.9591836734689</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>192066</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>-192067</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45610</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>-5263.1578947368425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>-5263.1578947368425</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>238731</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>-238732</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45652</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>6841.9076923076927</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45652</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>31657.444444444445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45656</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>4052.5819256756758</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45656</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>5333.614864864865</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <f>+EOMONTH(A63,12)</f>
+        <v>46022</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>191925.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C31 C34:C1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>694</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642315DA-2447-43CA-A179-192A516B2B4E}">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>-5446.4285714285716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>-5220.869565217391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-4237.2881355932204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>-4878.0487804878048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>-4838.7096774193551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>-4918.0327868852455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>-9311.7408906882592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>-3187.2509960159364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>-2788.8446215139443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>-1606.4257028112449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>-4081.6326530612246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>-3292.1810699588477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>+EOMONTH(A12,0)</f>
+        <v>45322</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>56179</v>
+      </c>
+      <c r="D14">
+        <f>+XIRR(C2:C14,A2:A14)</f>
+        <v>3.1674096345901495</v>
+      </c>
+      <c r="E14" s="5">
+        <f>+(1+D14)^(1/12)-1</f>
+        <v>0.12630371334099588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <f>-C14</f>
+        <v>-56179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>-5529.9539170506914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>+EOMONTH(A16,0)</f>
+        <v>45351</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>68269</v>
+      </c>
+      <c r="D17">
+        <f>+XIRR(C15:C17,A15:A17)</f>
+        <v>3.1068452596664433</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" ref="E15:E19" si="0">+(1+D17)^(1/12)-1</f>
+        <v>0.12493050800607808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>-68270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>-4672.8971962616824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>-4926.1083743842364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>-5940.5940594059402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>-5882.3529411764703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>-4901.9607843137255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>-2970.2970297029701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f>+EOMONTH(A24,0)</f>
+        <v>45382</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>102236</v>
+      </c>
+      <c r="D25">
+        <f>+XIRR(C18:C25,A18:A25)</f>
+        <v>0.9662280440330504</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" ref="E15:E64" si="1">+(1+D25)^(1/12)-1</f>
+        <v>5.796059091092598E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>-102237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>-6091.3705583756346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>-4830.9178743961356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>-5797.101449275362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>123216</v>
+      </c>
+      <c r="D30">
+        <f>+XIRR(C26:C30,A26:A30)</f>
+        <v>0.61089757084846497</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
+        <v>4.0532526439120309E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <f>+-C30</f>
+        <v>-123216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>122729</v>
+      </c>
+      <c r="D32">
+        <f>+XIRR(C31:C32,A31:A32)</f>
+        <v>-4.704054892063142E-2</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
+        <v>-4.0071934323566705E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>-122730</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>-3759.3984962406016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45468</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>-3690.0369003690039</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>124604</v>
+      </c>
+      <c r="D36">
+        <f>+XIRR(C33:C36,A33:A36)</f>
+        <v>-0.43910424932837494</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="1"/>
+        <v>-4.7042543708018414E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>-124605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45489</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>-4285.7142857142853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45490</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>-4123.7113402061859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45491</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>-4123.7113402061859</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45492</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>-4152.249134948097</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>134994</v>
+      </c>
+      <c r="D42">
+        <f>+XIRR(C37:C42,A37:A42)</f>
+        <v>-0.4476817660033704</v>
+      </c>
+      <c r="E42" s="5">
+        <f>+(1+D42)^(1/12)-1</f>
+        <v>-4.8265567593955172E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>-134995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45518</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>-4428.0442804428048</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45520</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>-4460.966542750929</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45523</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>-4444.4444444444443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>171836</v>
+      </c>
+      <c r="D47">
+        <f>+XIRR(C43:C47,A43:A47)</f>
+        <v>5.9615733623504648</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="1"/>
+        <v>0.1755080755787557</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>-171837</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>179318</v>
+      </c>
+      <c r="D49">
+        <f>+XIRR(C48:C49,A48:A49)</f>
+        <v>0.7097613930702209</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="1"/>
+        <v>4.5710074766176723E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>-179319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>45575</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>8530</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>3418.8034188034189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>45593</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>-4897.9591836734689</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>192066</v>
+      </c>
+      <c r="D54">
+        <f>+XIRR(C50:C54,A50:A54)</f>
+        <v>2.7419790029525761</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="1"/>
+        <v>0.11624222145294194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>-192067</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45610</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>-5263.1578947368425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>-5263.1578947368425</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>238731</v>
+      </c>
+      <c r="D58">
+        <f>+XIRR(C55:C58,A55:A58)</f>
+        <v>7.2909423351287836</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="1"/>
+        <v>0.19275246989204553</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>-238732</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45652</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>6841.9076923076927</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45652</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>31657.444444444445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45656</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>4052.5819256756758</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45656</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>5333.614864864865</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <f>+EOMONTH(A63,12)</f>
+        <v>46022</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>191925.22</v>
+      </c>
+      <c r="D64">
+        <f>+XIRR(C59:C64,A59:A64)</f>
+        <v>5.1377743482589723E-3</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2714295116064172E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C31 C34:C1048576">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>694</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/datos/depositos.xlsx
+++ b/datos/depositos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Mercado-de-Valores\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB99AF9-A629-45A3-9F0C-49998B53FE4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F92A640-7688-43A2-982E-CE0861167872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{ED4DFA87-8014-4EA1-8181-ABD5C82B1EDE}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="14490" windowHeight="7875" activeTab="2" xr2:uid="{ED4DFA87-8014-4EA1-8181-ABD5C82B1EDE}"/>
   </bookViews>
   <sheets>
     <sheet name="depositos" sheetId="1" r:id="rId1"/>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AA962B-7CC8-43D0-8B3B-E7A0AAE966B2}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,8 +2002,8 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <f>+EOMONTH(A63,12)</f>
-        <v>46022</v>
+        <f>+EOMONTH(A63,0)</f>
+        <v>45657</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -2014,12 +2014,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C31 C34:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>694</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2244,7 +2244,7 @@
         <v>3.1068452596664433</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" ref="E15:E19" si="0">+(1+D17)^(1/12)-1</f>
+        <f t="shared" ref="E17" si="0">+(1+D17)^(1/12)-1</f>
         <v>0.12493050800607808</v>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
         <v>0.9662280440330504</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" ref="E15:E64" si="1">+(1+D25)^(1/12)-1</f>
+        <f t="shared" ref="E25:E64" si="1">+(1+D25)^(1/12)-1</f>
         <v>5.796059091092598E-2</v>
       </c>
     </row>
@@ -2850,12 +2850,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C31 C34:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>694</formula>
     </cfRule>
   </conditionalFormatting>

--- a/datos/depositos.xlsx
+++ b/datos/depositos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Mercado-de-Valores\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Cuenta-COCOS\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F92A640-7688-43A2-982E-CE0861167872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEECF1F-95E0-45CB-9B6E-29905142566C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="14490" windowHeight="7875" activeTab="2" xr2:uid="{ED4DFA87-8014-4EA1-8181-ABD5C82B1EDE}"/>
+    <workbookView xWindow="7035" yWindow="4080" windowWidth="14490" windowHeight="7875" activeTab="1" xr2:uid="{ED4DFA87-8014-4EA1-8181-ABD5C82B1EDE}"/>
   </bookViews>
   <sheets>
     <sheet name="depositos" sheetId="1" r:id="rId1"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE7DE3E-2773-4ED4-AA32-5604CC3423AA}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AA962B-7CC8-43D0-8B3B-E7A0AAE966B2}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>123216</v>
+        <v>123531</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="C31">
         <f>+-C30</f>
-        <v>-123216</v>
+        <v>-123531</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1656,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>122729</v>
+        <v>123346</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1700,7 +1700,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>124604</v>
+        <v>127036</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>134994</v>
+        <v>142958</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1821,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <v>171836</v>
+        <v>177408</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C49">
-        <v>179318</v>
+        <v>182543</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>238731</v>
+        <v>240551</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
